--- a/Tech_Spreadsheet.xlsx
+++ b/Tech_Spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Desktop\POLITO\V_ANNO\IST\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\IST_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,20 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Lch</t>
   </si>
   <si>
-    <t>Xj</t>
-  </si>
-  <si>
     <t>Xd</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>eSi_rel</t>
-  </si>
-  <si>
-    <t>ND_poly</t>
   </si>
   <si>
     <t>VDD</t>
@@ -443,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D28"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,258 +445,256 @@
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>90</v>
       </c>
-      <c r="D2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <f xml:space="preserve"> (((2*W3/(M3*D2))*(0.7+X2))^0.5)*10000000</f>
+        <v>11837.972838401092</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1734000000000000</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>100</v>
+      </c>
+      <c r="U2">
+        <v>8.5</v>
+      </c>
+      <c r="X2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3">
+        <f>A2/A3</f>
+        <v>5.625</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f>C2/B3</f>
+        <v>2104.5285046046388</v>
       </c>
       <c r="D3">
-        <f>C2/D2</f>
-        <v>5.625</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <f>C4/D3</f>
-        <v>8.8888888888888893</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <f xml:space="preserve"> (((2*D26/(D16*C7))*(0.7+C28))^0.5)*10000000</f>
-        <v>11837.972838401092</v>
-      </c>
-      <c r="D5">
-        <f>C5/D3</f>
-        <v>2104.5285046046388</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <f>C6/D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1734000000000000</v>
-      </c>
-      <c r="D7">
-        <f>C7*D3</f>
+        <f>D2*B3</f>
         <v>9753750000000000</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <f>C8/(D3^(3/2))</f>
+      <c r="E3">
+        <f>E2/(B3^(3/2))</f>
         <v>1.12436539028209</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
+      <c r="F3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="G3" s="2">
         <v>8.8542E-12</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <f>D9*D10/D8</f>
+      <c r="H3" s="2">
+        <f>F3*G3/E3</f>
         <v>3.0711884498095839E-11</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f>D22</f>
+      <c r="I3">
+        <f>S3</f>
         <v>4.05</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <f>D22+1.14/2 + D18</f>
+      <c r="J3" s="2">
+        <f>S3+1.14/2 + O3</f>
         <v>4.9759629641400664</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2">
-        <f>D12-D13</f>
+      <c r="K3" s="2">
+        <f>I3-J3</f>
         <v>-0.92596296414006662</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="e">
-        <f ca="1">C15*_xludf.sqrt(k)</f>
+      <c r="L3" t="e">
+        <f ca="1">L2*_xludf.sqrt(k)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="M3" s="2">
         <v>1.6200000000000001E-19</v>
       </c>
+      <c r="N3">
+        <f xml:space="preserve"> K3+2*O3+((4*M3*W3*D3*O3*M3)^0.5)/H3</f>
+        <v>-0.21403070891060419</v>
+      </c>
+      <c r="O3" s="2">
+        <f>P3*Q3*LN(D3/R3)</f>
+        <v>0.35596296414006662</v>
+      </c>
+      <c r="P3" s="2">
+        <v>8.6169999999999997E-5</v>
+      </c>
+      <c r="Q3">
+        <v>300</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10210000000</v>
+      </c>
+      <c r="S3">
+        <v>4.05</v>
+      </c>
+      <c r="V3">
+        <v>11.7</v>
+      </c>
+      <c r="W3" s="2">
+        <f>G3*V3</f>
+        <v>1.0359414E-10</v>
+      </c>
+      <c r="X3">
+        <f>X2/B3</f>
+        <v>0.21333333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <f xml:space="preserve"> D14+2*D18+((4*D16*D26*D7*D18*D16)^0.5)/D11</f>
-        <v>-0.21403070891060419</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2">
-        <f>D19*D20*LN(D7/D21)</f>
-        <v>0.35596296414006662</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8.6169999999999997E-5</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>300</v>
-      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10210000000</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>4.05</v>
-      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>8.5</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2">
-        <f>D10*D25</f>
-        <v>1.0359414E-10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2.26E+20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>1.2</v>
-      </c>
-      <c r="D28">
-        <f>C28/D3</f>
-        <v>0.21333333333333332</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
